--- a/Attempt+Selection+-+kgs.xlsx
+++ b/Attempt+Selection+-+kgs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark.blum\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark.blum\Desktop\weight track\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3605,14 +3605,30 @@
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="565" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="430" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3653,39 +3669,23 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="404" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="404" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="404" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="404" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="404" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="404" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="404" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="404" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="404" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="404" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="566">
@@ -13420,8 +13420,8 @@
   </sheetPr>
   <dimension ref="B1:AK161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="117" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="117" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" zeroHeight="1" outlineLevelRow="1"/>
@@ -13477,12 +13477,12 @@
       <c r="AB1"/>
     </row>
     <row r="2" spans="2:37" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="371" t="s">
+      <c r="B2" s="377" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="371"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="377"/>
       <c r="F2" s="254"/>
       <c r="G2" s="252"/>
       <c r="H2" s="253"/>
@@ -13497,10 +13497,10 @@
       <c r="AB2"/>
     </row>
     <row r="3" spans="2:37" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="371"/>
-      <c r="C3" s="371"/>
-      <c r="D3" s="371"/>
-      <c r="E3" s="371"/>
+      <c r="B3" s="377"/>
+      <c r="C3" s="377"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
       <c r="F3" s="233"/>
       <c r="G3" s="6"/>
       <c r="H3" s="233"/>
@@ -13571,10 +13571,10 @@
         <v>73</v>
       </c>
       <c r="W4" s="229"/>
-      <c r="X4" s="384" t="s">
+      <c r="X4" s="372" t="s">
         <v>61</v>
       </c>
-      <c r="Y4" s="384"/>
+      <c r="Y4" s="372"/>
       <c r="Z4" s="189"/>
       <c r="AA4" s="189"/>
       <c r="AB4"/>
@@ -13597,23 +13597,23 @@
       <c r="W5" s="6"/>
       <c r="Z5"/>
       <c r="AB5"/>
-      <c r="AF5" s="373" t="str">
+      <c r="AF5" s="371" t="str">
         <f>D4</f>
         <v>NAME</v>
       </c>
-      <c r="AG5" s="373"/>
+      <c r="AG5" s="371"/>
       <c r="AH5" s="55"/>
-      <c r="AI5" s="373" t="s">
+      <c r="AI5" s="371" t="s">
         <v>20</v>
       </c>
-      <c r="AJ5" s="373"/>
-      <c r="AK5" s="373"/>
+      <c r="AJ5" s="371"/>
+      <c r="AK5" s="371"/>
     </row>
     <row r="6" spans="2:37" s="7" customFormat="1" ht="16" customHeight="1">
-      <c r="B6" s="385" t="s">
+      <c r="B6" s="373" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="385"/>
+      <c r="C6" s="373"/>
       <c r="D6" s="338" t="s">
         <v>9</v>
       </c>
@@ -13719,10 +13719,10 @@
       </c>
       <c r="C8" s="333">
         <f>D8*2.20462</f>
-        <v>485.01639999999998</v>
+        <v>440.92399999999998</v>
       </c>
       <c r="D8" s="105">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="235"/>
@@ -13925,12 +13925,12 @@
       <c r="F12" s="238"/>
       <c r="G12" s="238"/>
       <c r="H12" s="238"/>
-      <c r="I12" s="388" t="s">
+      <c r="I12" s="376" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="388"/>
-      <c r="K12" s="388"/>
-      <c r="L12" s="388"/>
+      <c r="J12" s="376"/>
+      <c r="K12" s="376"/>
+      <c r="L12" s="376"/>
       <c r="M12" s="238"/>
       <c r="N12" s="157"/>
       <c r="O12" s="238"/>
@@ -13972,10 +13972,10 @@
       <c r="F13" s="239"/>
       <c r="G13" s="239"/>
       <c r="H13" s="239"/>
-      <c r="I13" s="388"/>
-      <c r="J13" s="388"/>
-      <c r="K13" s="388"/>
-      <c r="L13" s="388"/>
+      <c r="I13" s="376"/>
+      <c r="J13" s="376"/>
+      <c r="K13" s="376"/>
+      <c r="L13" s="376"/>
       <c r="M13" s="239"/>
       <c r="N13" s="239"/>
       <c r="O13" s="239"/>
@@ -14132,11 +14132,11 @@
       </c>
       <c r="C17" s="165">
         <f>FLOOR($D$8*E17,2.5)</f>
-        <v>195</v>
+        <v>177.5</v>
       </c>
       <c r="D17" s="166">
         <f>ROUND(C17*2.20462,0)</f>
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="E17" s="167">
         <v>0.89</v>
@@ -14181,15 +14181,15 @@
       <c r="W17" s="242"/>
       <c r="X17" s="267">
         <f t="shared" ref="X17:Y19" si="2">C17+J17+Q17</f>
-        <v>570</v>
+        <v>552.5</v>
       </c>
       <c r="Y17" s="268">
         <f t="shared" si="2"/>
-        <v>1257</v>
+        <v>1218</v>
       </c>
       <c r="AA17" s="269">
         <f>IF($J$4&lt;&gt;"",AC17*AD17,"")</f>
-        <v>380.47467316391447</v>
+        <v>368.79343319835567</v>
       </c>
       <c r="AB17"/>
       <c r="AC17" s="211">
@@ -14198,7 +14198,7 @@
       </c>
       <c r="AD17" s="212">
         <f>IF($K$4="lbs",SUM(D17,K17,R17)*$AG$14,SUM(C17,J17,Q17)*$AG$14)</f>
-        <v>570</v>
+        <v>552.5</v>
       </c>
       <c r="AE17" s="210">
         <f>IF($J$4="","",$J$4*$AG$14)</f>
@@ -14211,11 +14211,11 @@
       </c>
       <c r="C18" s="162">
         <f>FLOOR($D$8*E18,2.5)</f>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D18" s="163">
         <f>ROUND(C18*2.20462,0)</f>
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="E18" s="164">
         <v>0.91</v>
@@ -14260,15 +14260,15 @@
       <c r="W18" s="242"/>
       <c r="X18" s="262">
         <f t="shared" si="2"/>
-        <v>582.5</v>
+        <v>562.5</v>
       </c>
       <c r="Y18" s="263">
         <f t="shared" si="2"/>
-        <v>1285</v>
+        <v>1241</v>
       </c>
       <c r="AA18" s="264">
         <f>IF($J$4&lt;&gt;"",AC18*AD18,"")</f>
-        <v>388.81841599645645</v>
+        <v>375.46842746438926</v>
       </c>
       <c r="AB18"/>
       <c r="AC18" s="211">
@@ -14277,7 +14277,7 @@
       </c>
       <c r="AD18" s="212">
         <f>IF($K$4="lbs",SUM(D18,K18,R18)*$AG$14,SUM(C18,J18,Q18)*$AG$14)</f>
-        <v>582.5</v>
+        <v>562.5</v>
       </c>
       <c r="AE18" s="210">
         <f>IF($J$4="","",$J$4*$AG$14)</f>
@@ -14290,11 +14290,11 @@
       </c>
       <c r="C19" s="168">
         <f t="shared" ref="C19:C27" si="3">FLOOR($D$8*E19,2.5)</f>
-        <v>200</v>
+        <v>182.5</v>
       </c>
       <c r="D19" s="169">
         <f t="shared" ref="D19:D27" si="4">ROUND(C19*2.20462,0)</f>
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="E19" s="170">
         <v>0.92</v>
@@ -14339,15 +14339,15 @@
       <c r="W19" s="242"/>
       <c r="X19" s="261">
         <f t="shared" si="2"/>
-        <v>587.5</v>
+        <v>570</v>
       </c>
       <c r="Y19" s="265">
         <f t="shared" si="2"/>
-        <v>1295</v>
+        <v>1256</v>
       </c>
       <c r="AA19" s="266">
         <f>IF($J$4&lt;&gt;"",AC19*AD19,"")</f>
-        <v>392.15591312947322</v>
+        <v>380.47467316391447</v>
       </c>
       <c r="AB19"/>
       <c r="AC19" s="211">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="AD19" s="212">
         <f>IF($K$4="lbs",SUM(D19,K19,R19)*$AG$14,SUM(C19,J19,Q19)*$AG$14)</f>
-        <v>587.5</v>
+        <v>570</v>
       </c>
       <c r="AE19" s="210">
         <f>IF($J$4="","",$J$4*$AG$14)</f>
@@ -14432,11 +14432,11 @@
       </c>
       <c r="C21" s="165">
         <f t="shared" ref="C21" si="9">FLOOR($D$8*E21,2.5)</f>
-        <v>205</v>
+        <v>187.5</v>
       </c>
       <c r="D21" s="166">
         <f t="shared" ref="D21" si="10">ROUND(C21*2.20462,0)</f>
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="E21" s="167">
         <v>0.94</v>
@@ -14481,15 +14481,15 @@
       <c r="W21" s="244"/>
       <c r="X21" s="267">
         <f t="shared" ref="X21:Y23" si="15">C21+J21+Q21</f>
-        <v>602.5</v>
+        <v>585</v>
       </c>
       <c r="Y21" s="268">
         <f t="shared" si="15"/>
-        <v>1329</v>
+        <v>1290</v>
       </c>
       <c r="AA21" s="269">
         <f>IF($J$4&lt;&gt;"",AC21*AD21,"")</f>
-        <v>402.16840452852364</v>
+        <v>390.48716456296484</v>
       </c>
       <c r="AB21"/>
       <c r="AC21" s="211">
@@ -14498,7 +14498,7 @@
       </c>
       <c r="AD21" s="212">
         <f>IF($K$4="lbs",SUM(D21,K21,R21)*$AG$14,SUM(C21,J21,Q21)*$AG$14)</f>
-        <v>602.5</v>
+        <v>585</v>
       </c>
       <c r="AE21" s="210">
         <f>IF($J$4="","",$J$4*$AG$14)</f>
@@ -14511,11 +14511,11 @@
       </c>
       <c r="C22" s="162">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D22" s="163">
         <f t="shared" si="4"/>
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="E22" s="164">
         <v>0.96</v>
@@ -14560,15 +14560,15 @@
       <c r="W22" s="245"/>
       <c r="X22" s="262">
         <f t="shared" si="15"/>
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="Y22" s="263">
         <f t="shared" si="15"/>
-        <v>1356</v>
+        <v>1312</v>
       </c>
       <c r="AA22" s="264">
         <f>IF($J$4&lt;&gt;"",AC22*AD22,"")</f>
-        <v>410.51214736106562</v>
+        <v>397.16215882899843</v>
       </c>
       <c r="AB22"/>
       <c r="AC22" s="211">
@@ -14577,7 +14577,7 @@
       </c>
       <c r="AD22" s="212">
         <f>IF($K$4="lbs",SUM(D22,K22,R22)*$AG$14,SUM(C22,J22,Q22)*$AG$14)</f>
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="AE22" s="210">
         <f>IF($J$4="","",$J$4*$AG$14)</f>
@@ -14590,11 +14590,11 @@
       </c>
       <c r="C23" s="168">
         <f t="shared" si="3"/>
-        <v>212.5</v>
+        <v>192.5</v>
       </c>
       <c r="D23" s="169">
         <f t="shared" si="4"/>
-        <v>468</v>
+        <v>424</v>
       </c>
       <c r="E23" s="170">
         <v>0.97</v>
@@ -14639,15 +14639,15 @@
       <c r="W23" s="245"/>
       <c r="X23" s="261">
         <f t="shared" si="15"/>
-        <v>622.5</v>
+        <v>602.5</v>
       </c>
       <c r="Y23" s="265">
         <f t="shared" si="15"/>
-        <v>1372</v>
+        <v>1328</v>
       </c>
       <c r="AA23" s="266">
         <f>IF($J$4&lt;&gt;"",AC23*AD23,"")</f>
-        <v>415.51839306059077</v>
+        <v>402.16840452852364</v>
       </c>
       <c r="AB23"/>
       <c r="AC23" s="211">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="AD23" s="212">
         <f>IF($K$4="lbs",SUM(D23,K23,R23)*$AG$14,SUM(C23,J23,Q23)*$AG$14)</f>
-        <v>622.5</v>
+        <v>602.5</v>
       </c>
       <c r="AE23" s="210">
         <f>IF($J$4="","",$J$4*$AG$14)</f>
@@ -14732,11 +14732,11 @@
       </c>
       <c r="C25" s="165">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D25" s="166">
         <f t="shared" si="4"/>
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="E25" s="167">
         <v>0.98</v>
@@ -14781,15 +14781,15 @@
       <c r="W25" s="246"/>
       <c r="X25" s="267">
         <f t="shared" ref="X25:Y27" si="20">C25+J25+Q25</f>
-        <v>627.5</v>
+        <v>607.5</v>
       </c>
       <c r="Y25" s="268">
         <f t="shared" si="20"/>
-        <v>1384</v>
+        <v>1340</v>
       </c>
       <c r="AA25" s="269">
         <f>IF($J$4&lt;&gt;"",AC25*AD25,"")</f>
-        <v>418.85589019360759</v>
+        <v>405.50590166154041</v>
       </c>
       <c r="AB25"/>
       <c r="AC25" s="211">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="AD25" s="212">
         <f>IF($K$4="lbs",SUM(D25,K25,R25)*$AG$14,SUM(C25,J25,Q25)*$AG$14)</f>
-        <v>627.5</v>
+        <v>607.5</v>
       </c>
       <c r="AE25" s="210">
         <f>IF($J$4="","",$J$4*$AG$14)</f>
@@ -14811,11 +14811,11 @@
       </c>
       <c r="C26" s="162">
         <f>FLOOR($D$8*E26,2.5)</f>
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D26" s="163">
         <f t="shared" si="4"/>
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="E26" s="164">
         <v>1</v>
@@ -14860,16 +14860,16 @@
       <c r="W26" s="246"/>
       <c r="X26" s="162">
         <f t="shared" si="20"/>
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="Y26" s="163">
         <f t="shared" si="20"/>
-        <v>1422</v>
+        <v>1378</v>
       </c>
       <c r="Z26" s="270"/>
       <c r="AA26" s="271">
         <f>IF($J$4&lt;&gt;"",AC26*AD26,"")</f>
-        <v>430.53713015916634</v>
+        <v>417.18714162709921</v>
       </c>
       <c r="AB26"/>
       <c r="AC26" s="211">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="AD26" s="212">
         <f>IF($K$4="lbs",SUM(D26,K26,R26)*$AG$14,SUM(C26,J26,Q26)*$AG$14)</f>
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="AE26" s="210">
         <f>IF($J$4="","",$J$4*$AG$14)</f>
@@ -14891,11 +14891,11 @@
       </c>
       <c r="C27" s="168">
         <f t="shared" si="3"/>
-        <v>222.5</v>
+        <v>202.5</v>
       </c>
       <c r="D27" s="169">
         <f t="shared" si="4"/>
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="E27" s="170">
         <v>1.02</v>
@@ -14940,15 +14940,15 @@
       <c r="W27" s="246"/>
       <c r="X27" s="261">
         <f t="shared" si="20"/>
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="Y27" s="265">
         <f t="shared" si="20"/>
-        <v>1444</v>
+        <v>1399</v>
       </c>
       <c r="AA27" s="266">
         <f>IF($J$4&lt;&gt;"",AC27*AD27,"")</f>
-        <v>437.21212442519993</v>
+        <v>423.8621358931328</v>
       </c>
       <c r="AB27"/>
       <c r="AC27" s="211">
@@ -14957,7 +14957,7 @@
       </c>
       <c r="AD27" s="212">
         <f>IF($K$4="lbs",SUM(D27,K27,R27)*$AG$14,SUM(C27,J27,Q27)*$AG$14)</f>
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="AE27" s="210">
         <f>IF($J$4="","",$J$4*$AG$14)</f>
@@ -15411,15 +15411,15 @@
       </c>
       <c r="C36" s="191" t="str">
         <f>C26-C34&amp;"kg"</f>
-        <v>120kg</v>
+        <v>100kg</v>
       </c>
       <c r="D36" s="335" t="str">
         <f>TEXT(D26-D34,0)&amp;"lbs"</f>
-        <v>265lbs</v>
+        <v>221lbs</v>
       </c>
       <c r="E36" s="327">
         <f>(D26/D34)-1</f>
-        <v>1.1999256107628526</v>
+        <v>1.0003447306111712</v>
       </c>
       <c r="F36" s="247"/>
       <c r="G36" s="247"/>
@@ -15465,16 +15465,16 @@
       <c r="W36" s="247"/>
       <c r="X36" s="299" t="str">
         <f>X26-X34&amp;"kg"</f>
-        <v>345kg</v>
+        <v>325kg</v>
       </c>
       <c r="Y36" s="299" t="str">
         <f>Y26-Y34&amp;"lbs"</f>
-        <v>760.614lbs</v>
+        <v>716.614lbs</v>
       </c>
       <c r="Z36" s="300"/>
       <c r="AA36" s="301">
         <f>AA26-AA34</f>
-        <v>230.28730217815874</v>
+        <v>216.93731364609161</v>
       </c>
     </row>
     <row r="37" spans="2:31" ht="11" customHeight="1">
@@ -15495,30 +15495,30 @@
       <c r="AD37"/>
     </row>
     <row r="38" spans="2:31" ht="84" customHeight="1">
-      <c r="B38" s="386" t="s">
+      <c r="B38" s="374" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="386"/>
-      <c r="D38" s="386"/>
-      <c r="E38" s="386"/>
+      <c r="C38" s="374"/>
+      <c r="D38" s="374"/>
+      <c r="E38" s="374"/>
       <c r="F38" s="259"/>
       <c r="G38" s="259"/>
       <c r="H38" s="259"/>
-      <c r="I38" s="386" t="s">
+      <c r="I38" s="374" t="s">
         <v>78</v>
       </c>
-      <c r="J38" s="386"/>
-      <c r="K38" s="386"/>
-      <c r="L38" s="386"/>
+      <c r="J38" s="374"/>
+      <c r="K38" s="374"/>
+      <c r="L38" s="374"/>
       <c r="M38" s="259"/>
       <c r="N38" s="259"/>
       <c r="O38" s="259"/>
-      <c r="P38" s="387" t="s">
+      <c r="P38" s="375" t="s">
         <v>79</v>
       </c>
-      <c r="Q38" s="387"/>
-      <c r="R38" s="387"/>
-      <c r="S38" s="387"/>
+      <c r="Q38" s="375"/>
+      <c r="R38" s="375"/>
+      <c r="S38" s="375"/>
       <c r="T38" s="247"/>
       <c r="U38" s="247"/>
       <c r="V38" s="247"/>
@@ -15562,148 +15562,148 @@
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="2:31">
-      <c r="B40" s="374"/>
-      <c r="C40" s="375"/>
-      <c r="D40" s="375"/>
-      <c r="E40" s="376"/>
+      <c r="B40" s="379"/>
+      <c r="C40" s="380"/>
+      <c r="D40" s="380"/>
+      <c r="E40" s="381"/>
       <c r="F40" s="248"/>
       <c r="G40" s="3"/>
       <c r="H40" s="248"/>
-      <c r="I40" s="374"/>
-      <c r="J40" s="375"/>
-      <c r="K40" s="375"/>
-      <c r="L40" s="376"/>
+      <c r="I40" s="379"/>
+      <c r="J40" s="380"/>
+      <c r="K40" s="380"/>
+      <c r="L40" s="381"/>
       <c r="M40" s="248"/>
       <c r="N40" s="290"/>
       <c r="O40" s="248"/>
-      <c r="P40" s="374"/>
-      <c r="Q40" s="375"/>
-      <c r="R40" s="375"/>
-      <c r="S40" s="376"/>
+      <c r="P40" s="379"/>
+      <c r="Q40" s="380"/>
+      <c r="R40" s="380"/>
+      <c r="S40" s="381"/>
       <c r="T40" s="3"/>
       <c r="W40" s="3"/>
     </row>
     <row r="41" spans="2:31">
-      <c r="B41" s="377"/>
-      <c r="C41" s="378"/>
-      <c r="D41" s="378"/>
-      <c r="E41" s="379"/>
+      <c r="B41" s="382"/>
+      <c r="C41" s="383"/>
+      <c r="D41" s="383"/>
+      <c r="E41" s="384"/>
       <c r="F41" s="248"/>
       <c r="G41" s="3"/>
       <c r="H41" s="248"/>
-      <c r="I41" s="377"/>
-      <c r="J41" s="378"/>
-      <c r="K41" s="378"/>
-      <c r="L41" s="379"/>
+      <c r="I41" s="382"/>
+      <c r="J41" s="383"/>
+      <c r="K41" s="383"/>
+      <c r="L41" s="384"/>
       <c r="M41" s="248"/>
       <c r="N41" s="291"/>
       <c r="O41" s="248"/>
-      <c r="P41" s="377"/>
-      <c r="Q41" s="378"/>
-      <c r="R41" s="378"/>
-      <c r="S41" s="379"/>
+      <c r="P41" s="382"/>
+      <c r="Q41" s="383"/>
+      <c r="R41" s="383"/>
+      <c r="S41" s="384"/>
       <c r="T41" s="3"/>
       <c r="W41" s="3"/>
     </row>
     <row r="42" spans="2:31">
-      <c r="B42" s="377"/>
-      <c r="C42" s="378"/>
-      <c r="D42" s="378"/>
-      <c r="E42" s="379"/>
+      <c r="B42" s="382"/>
+      <c r="C42" s="383"/>
+      <c r="D42" s="383"/>
+      <c r="E42" s="384"/>
       <c r="F42" s="249"/>
       <c r="G42" s="1"/>
       <c r="H42" s="249"/>
-      <c r="I42" s="377"/>
-      <c r="J42" s="378"/>
-      <c r="K42" s="378"/>
-      <c r="L42" s="379"/>
+      <c r="I42" s="382"/>
+      <c r="J42" s="383"/>
+      <c r="K42" s="383"/>
+      <c r="L42" s="384"/>
       <c r="M42" s="249"/>
       <c r="N42" s="13"/>
       <c r="O42" s="249"/>
-      <c r="P42" s="377"/>
-      <c r="Q42" s="378"/>
-      <c r="R42" s="378"/>
-      <c r="S42" s="379"/>
+      <c r="P42" s="382"/>
+      <c r="Q42" s="383"/>
+      <c r="R42" s="383"/>
+      <c r="S42" s="384"/>
       <c r="T42" s="1"/>
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="2:31">
-      <c r="B43" s="377"/>
-      <c r="C43" s="378"/>
-      <c r="D43" s="378"/>
-      <c r="E43" s="379"/>
+      <c r="B43" s="382"/>
+      <c r="C43" s="383"/>
+      <c r="D43" s="383"/>
+      <c r="E43" s="384"/>
       <c r="F43" s="249"/>
       <c r="G43" s="1"/>
       <c r="H43" s="249"/>
-      <c r="I43" s="377"/>
-      <c r="J43" s="378"/>
-      <c r="K43" s="378"/>
-      <c r="L43" s="379"/>
+      <c r="I43" s="382"/>
+      <c r="J43" s="383"/>
+      <c r="K43" s="383"/>
+      <c r="L43" s="384"/>
       <c r="M43" s="249"/>
       <c r="N43" s="13"/>
       <c r="O43" s="249"/>
-      <c r="P43" s="377"/>
-      <c r="Q43" s="378"/>
-      <c r="R43" s="378"/>
-      <c r="S43" s="379"/>
+      <c r="P43" s="382"/>
+      <c r="Q43" s="383"/>
+      <c r="R43" s="383"/>
+      <c r="S43" s="384"/>
       <c r="T43" s="1"/>
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="2:31">
-      <c r="B44" s="377"/>
-      <c r="C44" s="378"/>
-      <c r="D44" s="378"/>
-      <c r="E44" s="379"/>
+      <c r="B44" s="382"/>
+      <c r="C44" s="383"/>
+      <c r="D44" s="383"/>
+      <c r="E44" s="384"/>
       <c r="F44" s="250"/>
       <c r="G44" s="7"/>
       <c r="H44" s="250"/>
-      <c r="I44" s="377"/>
-      <c r="J44" s="378"/>
-      <c r="K44" s="378"/>
-      <c r="L44" s="379"/>
+      <c r="I44" s="382"/>
+      <c r="J44" s="383"/>
+      <c r="K44" s="383"/>
+      <c r="L44" s="384"/>
       <c r="M44" s="250"/>
       <c r="N44" s="13"/>
       <c r="O44" s="250"/>
-      <c r="P44" s="377"/>
-      <c r="Q44" s="378"/>
-      <c r="R44" s="378"/>
-      <c r="S44" s="379"/>
+      <c r="P44" s="382"/>
+      <c r="Q44" s="383"/>
+      <c r="R44" s="383"/>
+      <c r="S44" s="384"/>
       <c r="T44" s="7"/>
       <c r="W44" s="7"/>
-      <c r="X44" s="383" t="s">
+      <c r="X44" s="388" t="s">
         <v>50</v>
       </c>
-      <c r="Y44" s="383"/>
-      <c r="Z44" s="383"/>
-      <c r="AA44" s="383"/>
+      <c r="Y44" s="388"/>
+      <c r="Z44" s="388"/>
+      <c r="AA44" s="388"/>
     </row>
     <row r="45" spans="2:31">
-      <c r="B45" s="380"/>
-      <c r="C45" s="381"/>
-      <c r="D45" s="381"/>
-      <c r="E45" s="382"/>
+      <c r="B45" s="385"/>
+      <c r="C45" s="386"/>
+      <c r="D45" s="386"/>
+      <c r="E45" s="387"/>
       <c r="F45" s="250"/>
       <c r="G45" s="7"/>
       <c r="H45" s="250"/>
-      <c r="I45" s="380"/>
-      <c r="J45" s="381"/>
-      <c r="K45" s="381"/>
-      <c r="L45" s="382"/>
+      <c r="I45" s="385"/>
+      <c r="J45" s="386"/>
+      <c r="K45" s="386"/>
+      <c r="L45" s="387"/>
       <c r="M45" s="250"/>
       <c r="N45" s="13"/>
       <c r="O45" s="250"/>
-      <c r="P45" s="380"/>
-      <c r="Q45" s="381"/>
-      <c r="R45" s="381"/>
-      <c r="S45" s="382"/>
+      <c r="P45" s="385"/>
+      <c r="Q45" s="386"/>
+      <c r="R45" s="386"/>
+      <c r="S45" s="387"/>
       <c r="T45" s="7"/>
       <c r="W45" s="7"/>
-      <c r="X45" s="372" t="s">
+      <c r="X45" s="378" t="s">
         <v>51</v>
       </c>
-      <c r="Y45" s="372"/>
-      <c r="Z45" s="372"/>
-      <c r="AA45" s="372"/>
+      <c r="Y45" s="378"/>
+      <c r="Z45" s="378"/>
+      <c r="AA45" s="378"/>
     </row>
     <row r="46" spans="2:31">
       <c r="B46" s="1"/>
@@ -16927,6 +16927,13 @@
   </sheetData>
   <sheetProtection password="81CF" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="X45:AA45"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="B40:E45"/>
+    <mergeCell ref="I40:L45"/>
+    <mergeCell ref="P40:S45"/>
+    <mergeCell ref="X44:AA44"/>
     <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="B6:C6"/>
@@ -16934,13 +16941,6 @@
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="P38:S38"/>
     <mergeCell ref="I12:L13"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="X45:AA45"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="B40:E45"/>
-    <mergeCell ref="I40:L45"/>
-    <mergeCell ref="P40:S45"/>
-    <mergeCell ref="X44:AA44"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="8">
@@ -17243,49 +17243,49 @@
       <c r="AF3" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="AH3" s="394" t="s">
+      <c r="AH3" s="389" t="s">
         <v>109</v>
       </c>
-      <c r="AI3" s="394"/>
-      <c r="AJ3" s="394"/>
-      <c r="AK3" s="394"/>
-      <c r="AL3" s="394"/>
-      <c r="AM3" s="394"/>
-      <c r="AN3" s="394"/>
-      <c r="AO3" s="394"/>
-      <c r="AP3" s="394"/>
-      <c r="AQ3" s="394"/>
-      <c r="AR3" s="394"/>
-      <c r="AS3" s="394"/>
-      <c r="AT3" s="394"/>
-      <c r="AU3" s="394"/>
-      <c r="AV3" s="394"/>
-      <c r="AW3" s="394"/>
-      <c r="AX3" s="394"/>
-      <c r="AY3" s="394"/>
-      <c r="AZ3" s="394"/>
-      <c r="BA3" s="394"/>
-      <c r="BB3" s="394"/>
-      <c r="BC3" s="394"/>
-      <c r="BD3" s="394"/>
-      <c r="BE3" s="394"/>
-      <c r="BF3" s="394"/>
-      <c r="BG3" s="394"/>
-      <c r="BH3" s="394"/>
-      <c r="BI3" s="394"/>
-      <c r="BJ3" s="394"/>
-      <c r="BK3" s="394"/>
-      <c r="BL3" s="394"/>
-      <c r="BM3" s="394"/>
-      <c r="BN3" s="394"/>
-      <c r="BO3" s="394"/>
-      <c r="BP3" s="394"/>
-      <c r="BQ3" s="394"/>
-      <c r="BR3" s="394"/>
-      <c r="BS3" s="394"/>
-      <c r="BT3" s="394"/>
-      <c r="BU3" s="394"/>
-      <c r="BV3" s="394"/>
+      <c r="AI3" s="389"/>
+      <c r="AJ3" s="389"/>
+      <c r="AK3" s="389"/>
+      <c r="AL3" s="389"/>
+      <c r="AM3" s="389"/>
+      <c r="AN3" s="389"/>
+      <c r="AO3" s="389"/>
+      <c r="AP3" s="389"/>
+      <c r="AQ3" s="389"/>
+      <c r="AR3" s="389"/>
+      <c r="AS3" s="389"/>
+      <c r="AT3" s="389"/>
+      <c r="AU3" s="389"/>
+      <c r="AV3" s="389"/>
+      <c r="AW3" s="389"/>
+      <c r="AX3" s="389"/>
+      <c r="AY3" s="389"/>
+      <c r="AZ3" s="389"/>
+      <c r="BA3" s="389"/>
+      <c r="BB3" s="389"/>
+      <c r="BC3" s="389"/>
+      <c r="BD3" s="389"/>
+      <c r="BE3" s="389"/>
+      <c r="BF3" s="389"/>
+      <c r="BG3" s="389"/>
+      <c r="BH3" s="389"/>
+      <c r="BI3" s="389"/>
+      <c r="BJ3" s="389"/>
+      <c r="BK3" s="389"/>
+      <c r="BL3" s="389"/>
+      <c r="BM3" s="389"/>
+      <c r="BN3" s="389"/>
+      <c r="BO3" s="389"/>
+      <c r="BP3" s="389"/>
+      <c r="BQ3" s="389"/>
+      <c r="BR3" s="389"/>
+      <c r="BS3" s="389"/>
+      <c r="BT3" s="389"/>
+      <c r="BU3" s="389"/>
+      <c r="BV3" s="389"/>
     </row>
     <row r="4" spans="1:77">
       <c r="A4" s="113" t="s">
@@ -17341,47 +17341,47 @@
         <f>IF(ISNUMBER($C4),1,"")</f>
         <v>1</v>
       </c>
-      <c r="AH4" s="394"/>
-      <c r="AI4" s="394"/>
-      <c r="AJ4" s="394"/>
-      <c r="AK4" s="394"/>
-      <c r="AL4" s="394"/>
-      <c r="AM4" s="394"/>
-      <c r="AN4" s="394"/>
-      <c r="AO4" s="394"/>
-      <c r="AP4" s="394"/>
-      <c r="AQ4" s="394"/>
-      <c r="AR4" s="394"/>
-      <c r="AS4" s="394"/>
-      <c r="AT4" s="394"/>
-      <c r="AU4" s="394"/>
-      <c r="AV4" s="394"/>
-      <c r="AW4" s="394"/>
-      <c r="AX4" s="394"/>
-      <c r="AY4" s="394"/>
-      <c r="AZ4" s="394"/>
-      <c r="BA4" s="394"/>
-      <c r="BB4" s="394"/>
-      <c r="BC4" s="394"/>
-      <c r="BD4" s="394"/>
-      <c r="BE4" s="394"/>
-      <c r="BF4" s="394"/>
-      <c r="BG4" s="394"/>
-      <c r="BH4" s="394"/>
-      <c r="BI4" s="394"/>
-      <c r="BJ4" s="394"/>
-      <c r="BK4" s="394"/>
-      <c r="BL4" s="394"/>
-      <c r="BM4" s="394"/>
-      <c r="BN4" s="394"/>
-      <c r="BO4" s="394"/>
-      <c r="BP4" s="394"/>
-      <c r="BQ4" s="394"/>
-      <c r="BR4" s="394"/>
-      <c r="BS4" s="394"/>
-      <c r="BT4" s="394"/>
-      <c r="BU4" s="394"/>
-      <c r="BV4" s="394"/>
+      <c r="AH4" s="389"/>
+      <c r="AI4" s="389"/>
+      <c r="AJ4" s="389"/>
+      <c r="AK4" s="389"/>
+      <c r="AL4" s="389"/>
+      <c r="AM4" s="389"/>
+      <c r="AN4" s="389"/>
+      <c r="AO4" s="389"/>
+      <c r="AP4" s="389"/>
+      <c r="AQ4" s="389"/>
+      <c r="AR4" s="389"/>
+      <c r="AS4" s="389"/>
+      <c r="AT4" s="389"/>
+      <c r="AU4" s="389"/>
+      <c r="AV4" s="389"/>
+      <c r="AW4" s="389"/>
+      <c r="AX4" s="389"/>
+      <c r="AY4" s="389"/>
+      <c r="AZ4" s="389"/>
+      <c r="BA4" s="389"/>
+      <c r="BB4" s="389"/>
+      <c r="BC4" s="389"/>
+      <c r="BD4" s="389"/>
+      <c r="BE4" s="389"/>
+      <c r="BF4" s="389"/>
+      <c r="BG4" s="389"/>
+      <c r="BH4" s="389"/>
+      <c r="BI4" s="389"/>
+      <c r="BJ4" s="389"/>
+      <c r="BK4" s="389"/>
+      <c r="BL4" s="389"/>
+      <c r="BM4" s="389"/>
+      <c r="BN4" s="389"/>
+      <c r="BO4" s="389"/>
+      <c r="BP4" s="389"/>
+      <c r="BQ4" s="389"/>
+      <c r="BR4" s="389"/>
+      <c r="BS4" s="389"/>
+      <c r="BT4" s="389"/>
+      <c r="BU4" s="389"/>
+      <c r="BV4" s="389"/>
     </row>
     <row r="5" spans="1:77" ht="4" customHeight="1">
       <c r="A5" s="113"/>
@@ -17404,47 +17404,47 @@
       <c r="AD5" s="126"/>
       <c r="AE5" s="126"/>
       <c r="AF5" s="126"/>
-      <c r="AH5" s="394"/>
-      <c r="AI5" s="394"/>
-      <c r="AJ5" s="394"/>
-      <c r="AK5" s="394"/>
-      <c r="AL5" s="394"/>
-      <c r="AM5" s="394"/>
-      <c r="AN5" s="394"/>
-      <c r="AO5" s="394"/>
-      <c r="AP5" s="394"/>
-      <c r="AQ5" s="394"/>
-      <c r="AR5" s="394"/>
-      <c r="AS5" s="394"/>
-      <c r="AT5" s="394"/>
-      <c r="AU5" s="394"/>
-      <c r="AV5" s="394"/>
-      <c r="AW5" s="394"/>
-      <c r="AX5" s="394"/>
-      <c r="AY5" s="394"/>
-      <c r="AZ5" s="394"/>
-      <c r="BA5" s="394"/>
-      <c r="BB5" s="394"/>
-      <c r="BC5" s="394"/>
-      <c r="BD5" s="394"/>
-      <c r="BE5" s="394"/>
-      <c r="BF5" s="394"/>
-      <c r="BG5" s="394"/>
-      <c r="BH5" s="394"/>
-      <c r="BI5" s="394"/>
-      <c r="BJ5" s="394"/>
-      <c r="BK5" s="394"/>
-      <c r="BL5" s="394"/>
-      <c r="BM5" s="394"/>
-      <c r="BN5" s="394"/>
-      <c r="BO5" s="394"/>
-      <c r="BP5" s="394"/>
-      <c r="BQ5" s="394"/>
-      <c r="BR5" s="394"/>
-      <c r="BS5" s="394"/>
-      <c r="BT5" s="394"/>
-      <c r="BU5" s="394"/>
-      <c r="BV5" s="394"/>
+      <c r="AH5" s="389"/>
+      <c r="AI5" s="389"/>
+      <c r="AJ5" s="389"/>
+      <c r="AK5" s="389"/>
+      <c r="AL5" s="389"/>
+      <c r="AM5" s="389"/>
+      <c r="AN5" s="389"/>
+      <c r="AO5" s="389"/>
+      <c r="AP5" s="389"/>
+      <c r="AQ5" s="389"/>
+      <c r="AR5" s="389"/>
+      <c r="AS5" s="389"/>
+      <c r="AT5" s="389"/>
+      <c r="AU5" s="389"/>
+      <c r="AV5" s="389"/>
+      <c r="AW5" s="389"/>
+      <c r="AX5" s="389"/>
+      <c r="AY5" s="389"/>
+      <c r="AZ5" s="389"/>
+      <c r="BA5" s="389"/>
+      <c r="BB5" s="389"/>
+      <c r="BC5" s="389"/>
+      <c r="BD5" s="389"/>
+      <c r="BE5" s="389"/>
+      <c r="BF5" s="389"/>
+      <c r="BG5" s="389"/>
+      <c r="BH5" s="389"/>
+      <c r="BI5" s="389"/>
+      <c r="BJ5" s="389"/>
+      <c r="BK5" s="389"/>
+      <c r="BL5" s="389"/>
+      <c r="BM5" s="389"/>
+      <c r="BN5" s="389"/>
+      <c r="BO5" s="389"/>
+      <c r="BP5" s="389"/>
+      <c r="BQ5" s="389"/>
+      <c r="BR5" s="389"/>
+      <c r="BS5" s="389"/>
+      <c r="BT5" s="389"/>
+      <c r="BU5" s="389"/>
+      <c r="BV5" s="389"/>
     </row>
     <row r="6" spans="1:77">
       <c r="A6" s="113" t="s">
@@ -17500,47 +17500,47 @@
         <f t="shared" ref="AF6" si="0">IF(ISNUMBER($C6),1,"")</f>
         <v>1</v>
       </c>
-      <c r="AH6" s="394"/>
-      <c r="AI6" s="394"/>
-      <c r="AJ6" s="394"/>
-      <c r="AK6" s="394"/>
-      <c r="AL6" s="394"/>
-      <c r="AM6" s="394"/>
-      <c r="AN6" s="394"/>
-      <c r="AO6" s="394"/>
-      <c r="AP6" s="394"/>
-      <c r="AQ6" s="394"/>
-      <c r="AR6" s="394"/>
-      <c r="AS6" s="394"/>
-      <c r="AT6" s="394"/>
-      <c r="AU6" s="394"/>
-      <c r="AV6" s="394"/>
-      <c r="AW6" s="394"/>
-      <c r="AX6" s="394"/>
-      <c r="AY6" s="394"/>
-      <c r="AZ6" s="394"/>
-      <c r="BA6" s="394"/>
-      <c r="BB6" s="394"/>
-      <c r="BC6" s="394"/>
-      <c r="BD6" s="394"/>
-      <c r="BE6" s="394"/>
-      <c r="BF6" s="394"/>
-      <c r="BG6" s="394"/>
-      <c r="BH6" s="394"/>
-      <c r="BI6" s="394"/>
-      <c r="BJ6" s="394"/>
-      <c r="BK6" s="394"/>
-      <c r="BL6" s="394"/>
-      <c r="BM6" s="394"/>
-      <c r="BN6" s="394"/>
-      <c r="BO6" s="394"/>
-      <c r="BP6" s="394"/>
-      <c r="BQ6" s="394"/>
-      <c r="BR6" s="394"/>
-      <c r="BS6" s="394"/>
-      <c r="BT6" s="394"/>
-      <c r="BU6" s="394"/>
-      <c r="BV6" s="394"/>
+      <c r="AH6" s="389"/>
+      <c r="AI6" s="389"/>
+      <c r="AJ6" s="389"/>
+      <c r="AK6" s="389"/>
+      <c r="AL6" s="389"/>
+      <c r="AM6" s="389"/>
+      <c r="AN6" s="389"/>
+      <c r="AO6" s="389"/>
+      <c r="AP6" s="389"/>
+      <c r="AQ6" s="389"/>
+      <c r="AR6" s="389"/>
+      <c r="AS6" s="389"/>
+      <c r="AT6" s="389"/>
+      <c r="AU6" s="389"/>
+      <c r="AV6" s="389"/>
+      <c r="AW6" s="389"/>
+      <c r="AX6" s="389"/>
+      <c r="AY6" s="389"/>
+      <c r="AZ6" s="389"/>
+      <c r="BA6" s="389"/>
+      <c r="BB6" s="389"/>
+      <c r="BC6" s="389"/>
+      <c r="BD6" s="389"/>
+      <c r="BE6" s="389"/>
+      <c r="BF6" s="389"/>
+      <c r="BG6" s="389"/>
+      <c r="BH6" s="389"/>
+      <c r="BI6" s="389"/>
+      <c r="BJ6" s="389"/>
+      <c r="BK6" s="389"/>
+      <c r="BL6" s="389"/>
+      <c r="BM6" s="389"/>
+      <c r="BN6" s="389"/>
+      <c r="BO6" s="389"/>
+      <c r="BP6" s="389"/>
+      <c r="BQ6" s="389"/>
+      <c r="BR6" s="389"/>
+      <c r="BS6" s="389"/>
+      <c r="BT6" s="389"/>
+      <c r="BU6" s="389"/>
+      <c r="BV6" s="389"/>
     </row>
     <row r="7" spans="1:77" ht="14" customHeight="1">
       <c r="A7" s="78"/>
@@ -17550,7 +17550,7 @@
       <c r="E7" s="79"/>
       <c r="F7" s="79"/>
       <c r="J7" s="80"/>
-      <c r="R7" s="389" t="s">
+      <c r="R7" s="394" t="s">
         <v>40</v>
       </c>
       <c r="S7" s="81"/>
@@ -17558,30 +17558,30 @@
         <v>41</v>
       </c>
       <c r="U7" s="81"/>
-      <c r="V7" s="390" t="s">
+      <c r="V7" s="391" t="s">
         <v>42</v>
       </c>
       <c r="W7" s="81"/>
-      <c r="X7" s="393" t="s">
+      <c r="X7" s="390" t="s">
         <v>43</v>
       </c>
       <c r="Y7" s="81"/>
-      <c r="Z7" s="390" t="s">
+      <c r="Z7" s="391" t="s">
         <v>44</v>
       </c>
       <c r="AA7" s="81"/>
-      <c r="AB7" s="390">
+      <c r="AB7" s="391">
         <v>2.5</v>
       </c>
       <c r="AC7" s="81"/>
-      <c r="AD7" s="391">
+      <c r="AD7" s="393">
         <v>1.25</v>
       </c>
       <c r="AE7" s="81"/>
-      <c r="AF7" s="390" t="s">
+      <c r="AF7" s="391" t="s">
         <v>45</v>
       </c>
-      <c r="AM7" s="389" t="s">
+      <c r="AM7" s="394" t="s">
         <v>40</v>
       </c>
       <c r="AN7" s="81"/>
@@ -17589,30 +17589,30 @@
         <v>41</v>
       </c>
       <c r="AP7" s="81"/>
-      <c r="AQ7" s="390" t="s">
+      <c r="AQ7" s="391" t="s">
         <v>42</v>
       </c>
       <c r="AR7" s="81"/>
-      <c r="AS7" s="393" t="s">
+      <c r="AS7" s="390" t="s">
         <v>43</v>
       </c>
       <c r="AT7" s="81"/>
-      <c r="AU7" s="390" t="s">
+      <c r="AU7" s="391" t="s">
         <v>44</v>
       </c>
       <c r="AV7" s="81"/>
-      <c r="AW7" s="390">
+      <c r="AW7" s="391">
         <v>2.5</v>
       </c>
       <c r="AX7" s="81"/>
-      <c r="AY7" s="391">
+      <c r="AY7" s="393">
         <v>1.25</v>
       </c>
       <c r="AZ7" s="81"/>
-      <c r="BA7" s="390" t="s">
+      <c r="BA7" s="391" t="s">
         <v>45</v>
       </c>
-      <c r="BH7" s="389" t="s">
+      <c r="BH7" s="394" t="s">
         <v>40</v>
       </c>
       <c r="BI7" s="81"/>
@@ -17620,27 +17620,27 @@
         <v>41</v>
       </c>
       <c r="BK7" s="81"/>
-      <c r="BL7" s="390" t="s">
+      <c r="BL7" s="391" t="s">
         <v>42</v>
       </c>
       <c r="BM7" s="81"/>
-      <c r="BN7" s="393" t="s">
+      <c r="BN7" s="390" t="s">
         <v>43</v>
       </c>
       <c r="BO7" s="81"/>
-      <c r="BP7" s="390" t="s">
+      <c r="BP7" s="391" t="s">
         <v>44</v>
       </c>
       <c r="BQ7" s="81"/>
-      <c r="BR7" s="390">
+      <c r="BR7" s="391">
         <v>2.5</v>
       </c>
       <c r="BS7" s="81"/>
-      <c r="BT7" s="391">
+      <c r="BT7" s="393">
         <v>1.25</v>
       </c>
       <c r="BU7" s="81"/>
-      <c r="BV7" s="390" t="s">
+      <c r="BV7" s="391" t="s">
         <v>45</v>
       </c>
     </row>
@@ -17651,57 +17651,57 @@
       <c r="G8" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="389"/>
+      <c r="R8" s="394"/>
       <c r="S8" s="81"/>
       <c r="T8" s="392"/>
       <c r="U8" s="81"/>
-      <c r="V8" s="390"/>
+      <c r="V8" s="391"/>
       <c r="W8" s="81"/>
-      <c r="X8" s="393"/>
+      <c r="X8" s="390"/>
       <c r="Y8" s="81"/>
-      <c r="Z8" s="390"/>
+      <c r="Z8" s="391"/>
       <c r="AA8" s="81"/>
-      <c r="AB8" s="390"/>
+      <c r="AB8" s="391"/>
       <c r="AC8" s="81"/>
-      <c r="AD8" s="391"/>
+      <c r="AD8" s="393"/>
       <c r="AE8" s="81"/>
-      <c r="AF8" s="390"/>
+      <c r="AF8" s="391"/>
       <c r="AH8" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="AM8" s="389"/>
+      <c r="AM8" s="394"/>
       <c r="AN8" s="81"/>
       <c r="AO8" s="392"/>
       <c r="AP8" s="81"/>
-      <c r="AQ8" s="390"/>
+      <c r="AQ8" s="391"/>
       <c r="AR8" s="81"/>
-      <c r="AS8" s="393"/>
+      <c r="AS8" s="390"/>
       <c r="AT8" s="81"/>
-      <c r="AU8" s="390"/>
+      <c r="AU8" s="391"/>
       <c r="AV8" s="81"/>
-      <c r="AW8" s="390"/>
+      <c r="AW8" s="391"/>
       <c r="AX8" s="81"/>
-      <c r="AY8" s="391"/>
+      <c r="AY8" s="393"/>
       <c r="AZ8" s="81"/>
-      <c r="BA8" s="390"/>
+      <c r="BA8" s="391"/>
       <c r="BC8" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="BH8" s="389"/>
+      <c r="BH8" s="394"/>
       <c r="BI8" s="81"/>
       <c r="BJ8" s="392"/>
       <c r="BK8" s="81"/>
-      <c r="BL8" s="390"/>
+      <c r="BL8" s="391"/>
       <c r="BM8" s="81"/>
-      <c r="BN8" s="393"/>
+      <c r="BN8" s="390"/>
       <c r="BO8" s="81"/>
-      <c r="BP8" s="390"/>
+      <c r="BP8" s="391"/>
       <c r="BQ8" s="81"/>
-      <c r="BR8" s="390"/>
+      <c r="BR8" s="391"/>
       <c r="BS8" s="81"/>
-      <c r="BT8" s="391"/>
+      <c r="BT8" s="393"/>
       <c r="BU8" s="81"/>
-      <c r="BV8" s="390"/>
+      <c r="BV8" s="391"/>
     </row>
     <row r="9" spans="1:77" ht="15" thickBot="1">
       <c r="B9" s="82"/>
@@ -17744,21 +17744,21 @@
         <v>49</v>
       </c>
       <c r="Q9" s="92"/>
-      <c r="R9" s="389"/>
+      <c r="R9" s="394"/>
       <c r="S9" s="108"/>
       <c r="T9" s="392"/>
       <c r="U9" s="108"/>
-      <c r="V9" s="390"/>
+      <c r="V9" s="391"/>
       <c r="W9" s="108"/>
-      <c r="X9" s="393"/>
+      <c r="X9" s="390"/>
       <c r="Y9" s="108"/>
-      <c r="Z9" s="390"/>
+      <c r="Z9" s="391"/>
       <c r="AA9" s="108"/>
-      <c r="AB9" s="390"/>
+      <c r="AB9" s="391"/>
       <c r="AC9" s="108"/>
-      <c r="AD9" s="391"/>
+      <c r="AD9" s="393"/>
       <c r="AE9" s="108"/>
-      <c r="AF9" s="390"/>
+      <c r="AF9" s="391"/>
       <c r="AG9" s="93"/>
       <c r="AH9" s="82"/>
       <c r="AI9" s="316" t="s">
@@ -17769,21 +17769,21 @@
         <v>54</v>
       </c>
       <c r="AL9" s="93"/>
-      <c r="AM9" s="389"/>
+      <c r="AM9" s="394"/>
       <c r="AN9" s="108"/>
       <c r="AO9" s="392"/>
       <c r="AP9" s="108"/>
-      <c r="AQ9" s="390"/>
+      <c r="AQ9" s="391"/>
       <c r="AR9" s="108"/>
-      <c r="AS9" s="393"/>
+      <c r="AS9" s="390"/>
       <c r="AT9" s="108"/>
-      <c r="AU9" s="390"/>
+      <c r="AU9" s="391"/>
       <c r="AV9" s="108"/>
-      <c r="AW9" s="390"/>
+      <c r="AW9" s="391"/>
       <c r="AX9" s="108"/>
-      <c r="AY9" s="391"/>
+      <c r="AY9" s="393"/>
       <c r="AZ9" s="108"/>
-      <c r="BA9" s="390"/>
+      <c r="BA9" s="391"/>
       <c r="BB9" s="93"/>
       <c r="BC9" s="82"/>
       <c r="BD9" s="316" t="s">
@@ -17794,21 +17794,21 @@
         <v>54</v>
       </c>
       <c r="BG9" s="93"/>
-      <c r="BH9" s="389"/>
+      <c r="BH9" s="394"/>
       <c r="BI9" s="108"/>
       <c r="BJ9" s="392"/>
       <c r="BK9" s="108"/>
-      <c r="BL9" s="390"/>
+      <c r="BL9" s="391"/>
       <c r="BM9" s="108"/>
-      <c r="BN9" s="393"/>
+      <c r="BN9" s="390"/>
       <c r="BO9" s="108"/>
-      <c r="BP9" s="390"/>
+      <c r="BP9" s="391"/>
       <c r="BQ9" s="108"/>
-      <c r="BR9" s="390"/>
+      <c r="BR9" s="391"/>
       <c r="BS9" s="108"/>
-      <c r="BT9" s="391"/>
+      <c r="BT9" s="393"/>
       <c r="BU9" s="108"/>
-      <c r="BV9" s="390"/>
+      <c r="BV9" s="391"/>
     </row>
     <row r="10" spans="1:77" ht="14" customHeight="1">
       <c r="B10" s="116">
@@ -18006,7 +18006,7 @@
       </c>
       <c r="E11" s="120" t="str">
         <f>IF(VALUE(SQOPEN)&lt;=(200/2.2),"3-5",IF(AND(SQOPEN&gt;=(201/2.2),SQOPEN&lt;=(400/2.2)),"4-7",IF(AND(SQOPEN&gt;=(401/2.2),SQOPEN&lt;=(600/2.2)),"5-8",IF(AND(SQOPEN&gt;=(601/2.2),SQOPEN&lt;=(1000/2.2)),"8"))))</f>
-        <v>5-8</v>
+        <v>4-7</v>
       </c>
       <c r="F11" s="143"/>
       <c r="G11" s="95">
@@ -18190,7 +18190,7 @@
       </c>
       <c r="E12" s="120" t="str">
         <f>IF(VALUE(SQOPEN)&lt;=(200/2.2),"1",IF(AND(SQOPEN&gt;=(201/2.2),SQOPEN&lt;=(400/2.2)),"3",IF(AND(SQOPEN&gt;=(401/2.2),SQOPEN&lt;=(600/2.2)),"3-5",IF(AND(SQOPEN&gt;=(601/2.2),SQOPEN&lt;=(1000/2.2)),"5"))))</f>
-        <v>3-5</v>
+        <v>3</v>
       </c>
       <c r="F12" s="143"/>
       <c r="G12" s="95">
@@ -18374,7 +18374,7 @@
       </c>
       <c r="E13" s="120" t="str">
         <f>IF(VALUE(SQOPEN)&lt;=(200/2.2),"",IF(AND(SQOPEN&gt;=(201/2.2),SQOPEN&lt;=(400/2.2)),"1",IF(AND(SQOPEN&gt;=(401/2.2),SQOPEN&lt;=(600/2.2)),"2",IF(AND(SQOPEN&gt;=(601/2.2),SQOPEN&lt;=(1000/2.2)),"3"))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="143"/>
       <c r="G13" s="95">
@@ -18553,7 +18553,7 @@
       </c>
       <c r="C14" s="330">
         <f>VLOOKUP(SQOPEN,'WARMUP LOADS'!$B$3:$K$161,6,TRUE)</f>
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D14" s="94" t="s">
         <v>30</v>
@@ -18589,12 +18589,12 @@
       <c r="S14" s="126"/>
       <c r="T14" s="126">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="126"/>
       <c r="V14" s="126">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="126"/>
       <c r="X14" s="126">
@@ -18609,7 +18609,7 @@
       <c r="AA14" s="126"/>
       <c r="AB14" s="126">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="126"/>
       <c r="AD14" s="126">
@@ -18643,12 +18643,12 @@
       <c r="AN14" s="126"/>
       <c r="AO14" s="126">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="126"/>
       <c r="AQ14" s="126">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" s="126"/>
       <c r="AS14" s="126">
@@ -18663,7 +18663,7 @@
       <c r="AV14" s="126"/>
       <c r="AW14" s="126">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="126"/>
       <c r="AY14" s="126">
@@ -18697,12 +18697,12 @@
       <c r="BI14" s="126"/>
       <c r="BJ14" s="126">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK14" s="126"/>
       <c r="BL14" s="126">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM14" s="126"/>
       <c r="BN14" s="126">
@@ -18717,7 +18717,7 @@
       <c r="BQ14" s="126"/>
       <c r="BR14" s="126">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS14" s="126"/>
       <c r="BT14" s="126">
@@ -18731,20 +18731,20 @@
       </c>
     </row>
     <row r="15" spans="1:77" ht="14" customHeight="1">
-      <c r="B15" s="116">
+      <c r="B15" s="116" t="str">
         <f>IF(VALUE(C15)&gt;0,6,"")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C15" s="330">
         <f>VLOOKUP(SQOPEN,'WARMUP LOADS'!$B$3:$K$161,7,TRUE)</f>
-        <v>182.5</v>
+        <v>0</v>
       </c>
       <c r="D15" s="94" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="120" t="str">
         <f>IF(SQOPEN&lt;=(435/2.2),"",IF(SQOPEN&gt;=(436/2.2),"1"))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="F15" s="143"/>
       <c r="G15" s="95">
@@ -18768,44 +18768,44 @@
         <v>1</v>
       </c>
       <c r="Q15" s="76"/>
-      <c r="R15" s="125">
+      <c r="R15" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="S15" s="126"/>
-      <c r="T15" s="126">
+      <c r="T15" s="126" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="U15" s="126"/>
-      <c r="V15" s="126">
+      <c r="V15" s="126" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W15" s="126"/>
-      <c r="X15" s="126">
+      <c r="X15" s="126" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="Y15" s="126"/>
-      <c r="Z15" s="126">
+      <c r="Z15" s="126" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="AA15" s="126"/>
-      <c r="AB15" s="126">
+      <c r="AB15" s="126" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AC15" s="126"/>
-      <c r="AD15" s="126">
+      <c r="AD15" s="126" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AE15" s="126"/>
-      <c r="AF15" s="126">
+      <c r="AF15" s="126" t="str">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AH15" s="116" t="str">
         <f>IF(VALUE(AI15)&gt;0,6,"")</f>
@@ -18822,39 +18822,39 @@
         <f>IF(BNOPEN&lt;=(435/2.2),"",IF(BNOPEN&gt;=(436/2.2),"1"))</f>
         <v/>
       </c>
-      <c r="AM15" s="125">
+      <c r="AM15" s="125" t="str">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="AN15" s="126"/>
-      <c r="AO15" s="126">
+      <c r="AO15" s="126" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="AP15" s="126"/>
-      <c r="AQ15" s="126">
+      <c r="AQ15" s="126" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="AR15" s="126"/>
-      <c r="AS15" s="126">
+      <c r="AS15" s="126" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="AT15" s="126"/>
-      <c r="AU15" s="126">
+      <c r="AU15" s="126" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="AV15" s="126"/>
-      <c r="AW15" s="126">
+      <c r="AW15" s="126" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AX15" s="126"/>
-      <c r="AY15" s="126">
+      <c r="AY15" s="126" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AZ15" s="126"/>
       <c r="BA15" s="126" t="str">
@@ -18876,39 +18876,39 @@
         <f>IF(DLOPEN&lt;=(435/2.2),"",IF(DLOPEN&gt;=(436/2.2),"1"))</f>
         <v>1</v>
       </c>
-      <c r="BH15" s="125">
+      <c r="BH15" s="125" t="str">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="BI15" s="126"/>
-      <c r="BJ15" s="126">
+      <c r="BJ15" s="126" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BK15" s="126"/>
-      <c r="BL15" s="126">
+      <c r="BL15" s="126" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BM15" s="126"/>
-      <c r="BN15" s="126">
+      <c r="BN15" s="126" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BO15" s="126"/>
-      <c r="BP15" s="126">
+      <c r="BP15" s="126" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BQ15" s="126"/>
-      <c r="BR15" s="126">
+      <c r="BR15" s="126" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BS15" s="126"/>
-      <c r="BT15" s="126">
+      <c r="BT15" s="126" t="str">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BU15" s="126"/>
       <c r="BV15" s="126">
@@ -19539,7 +19539,7 @@
       </c>
       <c r="C20" s="332" t="str">
         <f>ATTEMPTS!C18&amp;" kgs"</f>
-        <v>200 kgs</v>
+        <v>180 kgs</v>
       </c>
       <c r="E20" s="137"/>
       <c r="F20" s="76"/>
@@ -19614,7 +19614,7 @@
       <c r="A21" s="104"/>
       <c r="C21" s="145" t="str">
         <f>ATTEMPTS!D18&amp;" lbs"</f>
-        <v>441 lbs</v>
+        <v>397 lbs</v>
       </c>
       <c r="F21" s="118"/>
       <c r="G21" s="99">
@@ -24546,16 +24546,6 @@
   </sheetData>
   <sheetProtection password="81CF" sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1"/>
   <mergeCells count="25">
-    <mergeCell ref="AH3:BV6"/>
-    <mergeCell ref="BN7:BN9"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="V7:V9"/>
-    <mergeCell ref="X7:X9"/>
-    <mergeCell ref="Z7:Z9"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="BP7:BP9"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="BR7:BR9"/>
     <mergeCell ref="BT7:BT9"/>
@@ -24571,6 +24561,16 @@
     <mergeCell ref="BH7:BH9"/>
     <mergeCell ref="BJ7:BJ9"/>
     <mergeCell ref="BL7:BL9"/>
+    <mergeCell ref="AH3:BV6"/>
+    <mergeCell ref="BN7:BN9"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="V7:V9"/>
+    <mergeCell ref="X7:X9"/>
+    <mergeCell ref="Z7:Z9"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="BP7:BP9"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="R10:S18 AM22:AN25 AM26:AM30 AN26:AN29 AM34:AM45 AN33:AN44">
